--- a/Code/Results/Cases/Case_1_242/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_242/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.7805171801977651</v>
+        <v>1.018067105082657</v>
       </c>
       <c r="D2">
-        <v>1.01837271056848</v>
+        <v>1.028050429999862</v>
       </c>
       <c r="E2">
-        <v>0.811336245114899</v>
+        <v>1.018834723825937</v>
       </c>
       <c r="F2">
-        <v>0.8351223329605044</v>
+        <v>1.028569057437104</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.033854387220313</v>
+        <v>1.029841315527923</v>
       </c>
       <c r="J2">
-        <v>0.8120616375965383</v>
+        <v>1.023277645916982</v>
       </c>
       <c r="K2">
-        <v>1.029581883474452</v>
+        <v>1.030868375034837</v>
       </c>
       <c r="L2">
-        <v>0.8262462207392883</v>
+        <v>1.021679761590334</v>
       </c>
       <c r="M2">
-        <v>0.8494828501983098</v>
+        <v>1.031385493480437</v>
       </c>
       <c r="N2">
-        <v>0.813214858266697</v>
+        <v>1.024730817545772</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.8284762916464561</v>
+        <v>1.022104602649436</v>
       </c>
       <c r="D3">
-        <v>1.02241020977947</v>
+        <v>1.028550325515335</v>
       </c>
       <c r="E3">
-        <v>0.85307891044354</v>
+        <v>1.022395607626298</v>
       </c>
       <c r="F3">
-        <v>0.8745876387852751</v>
+        <v>1.032018474363051</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.036883286154663</v>
+        <v>1.030032628188528</v>
       </c>
       <c r="J3">
-        <v>0.8550573102019526</v>
+        <v>1.026935162657732</v>
       </c>
       <c r="K3">
-        <v>1.032764157872957</v>
+        <v>1.031176956395566</v>
       </c>
       <c r="L3">
-        <v>0.8660151763454076</v>
+        <v>1.025038977273434</v>
       </c>
       <c r="M3">
-        <v>0.8871238737472282</v>
+        <v>1.034635768186816</v>
       </c>
       <c r="N3">
-        <v>0.8562715896588838</v>
+        <v>1.028393528379816</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.8527844883046494</v>
+        <v>1.024687327660341</v>
       </c>
       <c r="D4">
-        <v>1.024669782947794</v>
+        <v>1.028871716451234</v>
       </c>
       <c r="E4">
-        <v>0.8743182743394481</v>
+        <v>1.024672132994881</v>
       </c>
       <c r="F4">
-        <v>0.8948280125304091</v>
+        <v>1.034223009948832</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038456904299893</v>
+        <v>1.030152752987494</v>
       </c>
       <c r="J4">
-        <v>0.8768853822809386</v>
+        <v>1.029273053295223</v>
       </c>
       <c r="K4">
-        <v>1.034479310756457</v>
+        <v>1.031373842521862</v>
       </c>
       <c r="L4">
-        <v>0.8862144889717699</v>
+        <v>1.027185086339882</v>
       </c>
       <c r="M4">
-        <v>0.9063866728114973</v>
+        <v>1.036711476794205</v>
       </c>
       <c r="N4">
-        <v>0.8781306601039368</v>
+        <v>1.030734739090171</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.8620065076070249</v>
+        <v>1.02576621780334</v>
       </c>
       <c r="D5">
-        <v>1.025564593372436</v>
+        <v>1.029006342577223</v>
       </c>
       <c r="E5">
-        <v>0.882387219477744</v>
+        <v>1.02562279538125</v>
       </c>
       <c r="F5">
-        <v>0.9025419718183849</v>
+        <v>1.035143425828342</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039058584930868</v>
+        <v>1.030202387868978</v>
       </c>
       <c r="J5">
-        <v>0.8851698477769218</v>
+        <v>1.030249243701315</v>
       </c>
       <c r="K5">
-        <v>1.035146846263681</v>
+        <v>1.031455956792303</v>
       </c>
       <c r="L5">
-        <v>0.8938811143580696</v>
+        <v>1.028080932488834</v>
       </c>
       <c r="M5">
-        <v>0.9137200497274988</v>
+        <v>1.037577734274358</v>
       </c>
       <c r="N5">
-        <v>0.8864268904911655</v>
+        <v>1.031712315798611</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.8635065467543104</v>
+        <v>1.025946971380876</v>
       </c>
       <c r="D6">
-        <v>1.025712094683613</v>
+        <v>1.029028918646499</v>
       </c>
       <c r="E6">
-        <v>0.8837002123832194</v>
+        <v>1.025782047382171</v>
       </c>
       <c r="F6">
-        <v>0.9037983976296218</v>
+        <v>1.035297599944332</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.03915664218185</v>
+        <v>1.030210671376977</v>
       </c>
       <c r="J6">
-        <v>0.886517494104504</v>
+        <v>1.030412766378771</v>
       </c>
       <c r="K6">
-        <v>1.035256271075157</v>
+        <v>1.031469705929866</v>
       </c>
       <c r="L6">
-        <v>0.8951282424436838</v>
+        <v>1.028230981019669</v>
       </c>
       <c r="M6">
-        <v>0.9149140516434672</v>
+        <v>1.037722814782982</v>
       </c>
       <c r="N6">
-        <v>0.8877764506311102</v>
+        <v>1.031876070697025</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.8529111431297306</v>
+        <v>1.024701770582887</v>
       </c>
       <c r="D7">
-        <v>1.024681932309662</v>
+        <v>1.028873517230918</v>
       </c>
       <c r="E7">
-        <v>0.8744290547780396</v>
+        <v>1.024684860609804</v>
       </c>
       <c r="F7">
-        <v>0.8949338318746128</v>
+        <v>1.034235333356784</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.03846515298412</v>
+        <v>1.030153419596169</v>
       </c>
       <c r="J7">
-        <v>0.8769991515825736</v>
+        <v>1.029286123066528</v>
       </c>
       <c r="K7">
-        <v>1.034488417446207</v>
+        <v>1.031374942303238</v>
       </c>
       <c r="L7">
-        <v>0.8863197738559698</v>
+        <v>1.027197081465032</v>
       </c>
       <c r="M7">
-        <v>0.9064873020887289</v>
+        <v>1.036723076542353</v>
       </c>
       <c r="N7">
-        <v>0.8782445909710292</v>
+        <v>1.030747827422051</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.7987018307498487</v>
+        <v>1.01943791994067</v>
       </c>
       <c r="D8">
-        <v>1.019838078606231</v>
+        <v>1.028219807873862</v>
       </c>
       <c r="E8">
-        <v>0.827134619739774</v>
+        <v>1.020043991594583</v>
       </c>
       <c r="F8">
-        <v>0.850005443643442</v>
+        <v>1.029740617097775</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.034988884248348</v>
+        <v>1.029906737470805</v>
       </c>
       <c r="J8">
-        <v>0.8283499434314027</v>
+        <v>1.024519817150466</v>
       </c>
       <c r="K8">
-        <v>1.030755871686404</v>
+        <v>1.030973244983417</v>
       </c>
       <c r="L8">
-        <v>0.8413077142544257</v>
+        <v>1.022820854235401</v>
       </c>
       <c r="M8">
-        <v>0.8636902921468477</v>
+        <v>1.032489741293921</v>
       </c>
       <c r="N8">
-        <v>0.8295262953641418</v>
+        <v>1.025974752804885</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.7987018307498487</v>
+        <v>1.009922495126758</v>
       </c>
       <c r="D9">
-        <v>1.019838078606231</v>
+        <v>1.027051520997268</v>
       </c>
       <c r="E9">
-        <v>0.827134619739774</v>
+        <v>1.01164452576869</v>
       </c>
       <c r="F9">
-        <v>0.850005443643442</v>
+        <v>1.021600426788542</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034988884248348</v>
+        <v>1.029443385824711</v>
       </c>
       <c r="J9">
-        <v>0.8283499434314027</v>
+        <v>1.015890017250645</v>
       </c>
       <c r="K9">
-        <v>1.030755871686404</v>
+        <v>1.030243568875564</v>
       </c>
       <c r="L9">
-        <v>0.8413077142544257</v>
+        <v>1.014888656369322</v>
       </c>
       <c r="M9">
-        <v>0.8636902921468477</v>
+        <v>1.024810704611762</v>
       </c>
       <c r="N9">
-        <v>0.8295262953641418</v>
+        <v>1.017332697599354</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.7987018307498487</v>
+        <v>1.003400783643963</v>
       </c>
       <c r="D10">
-        <v>1.019838078606231</v>
+        <v>1.02626095705391</v>
       </c>
       <c r="E10">
-        <v>0.827134619739774</v>
+        <v>1.005880944870363</v>
       </c>
       <c r="F10">
-        <v>0.850005443643442</v>
+        <v>1.016011866817545</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034988884248348</v>
+        <v>1.029114364405802</v>
       </c>
       <c r="J10">
-        <v>0.8283499434314027</v>
+        <v>1.009966054863218</v>
       </c>
       <c r="K10">
-        <v>1.030755871686404</v>
+        <v>1.029741716813135</v>
       </c>
       <c r="L10">
-        <v>0.8413077142544257</v>
+        <v>1.009437723447311</v>
       </c>
       <c r="M10">
-        <v>0.8636902921468477</v>
+        <v>1.019530434441688</v>
       </c>
       <c r="N10">
-        <v>0.8295262953641418</v>
+        <v>1.011400322505849</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.7987018307498487</v>
+        <v>1.000530614495827</v>
       </c>
       <c r="D11">
-        <v>1.019838078606231</v>
+        <v>1.025915690400758</v>
       </c>
       <c r="E11">
-        <v>0.827134619739774</v>
+        <v>1.003342866746604</v>
       </c>
       <c r="F11">
-        <v>0.850005443643442</v>
+        <v>1.01355032597436</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034988884248348</v>
+        <v>1.028966922186335</v>
       </c>
       <c r="J11">
-        <v>0.8283499434314027</v>
+        <v>1.007356775589569</v>
       </c>
       <c r="K11">
-        <v>1.030755871686404</v>
+        <v>1.029520585223876</v>
       </c>
       <c r="L11">
-        <v>0.8413077142544257</v>
+        <v>1.00703541340947</v>
       </c>
       <c r="M11">
-        <v>0.8636902921468477</v>
+        <v>1.01720269938594</v>
       </c>
       <c r="N11">
-        <v>0.8295262953641418</v>
+        <v>1.008787337756343</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.7987018307498487</v>
+        <v>0.9994572061126786</v>
       </c>
       <c r="D12">
-        <v>1.019838078606231</v>
+        <v>1.025786984999676</v>
       </c>
       <c r="E12">
-        <v>0.827134619739774</v>
+        <v>1.002393425777833</v>
       </c>
       <c r="F12">
-        <v>0.850005443643442</v>
+        <v>1.012629448606412</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034988884248348</v>
+        <v>1.028911390262416</v>
       </c>
       <c r="J12">
-        <v>0.8283499434314027</v>
+        <v>1.006380611505209</v>
       </c>
       <c r="K12">
-        <v>1.030755871686404</v>
+        <v>1.029437856740018</v>
       </c>
       <c r="L12">
-        <v>0.8413077142544257</v>
+        <v>1.006136471869503</v>
       </c>
       <c r="M12">
-        <v>0.8636902921468477</v>
+        <v>1.016331580505752</v>
       </c>
       <c r="N12">
-        <v>0.8295262953641418</v>
+        <v>1.007809787407016</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.7987018307498487</v>
+        <v>0.9996877920790229</v>
       </c>
       <c r="D13">
-        <v>1.019838078606231</v>
+        <v>1.025814613723718</v>
       </c>
       <c r="E13">
-        <v>0.827134619739774</v>
+        <v>1.002597391849281</v>
       </c>
       <c r="F13">
-        <v>0.850005443643442</v>
+        <v>1.012827281259715</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034988884248348</v>
+        <v>1.02892333698123</v>
       </c>
       <c r="J13">
-        <v>0.8283499434314027</v>
+        <v>1.006590322460577</v>
       </c>
       <c r="K13">
-        <v>1.030755871686404</v>
+        <v>1.029455629253989</v>
       </c>
       <c r="L13">
-        <v>0.8413077142544257</v>
+        <v>1.006329602338462</v>
       </c>
       <c r="M13">
-        <v>0.8636902921468477</v>
+        <v>1.016518737049293</v>
       </c>
       <c r="N13">
-        <v>0.8295262953641418</v>
+        <v>1.008019796175995</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.7987018307498487</v>
+        <v>1.000442037251159</v>
       </c>
       <c r="D14">
-        <v>1.019838078606231</v>
+        <v>1.025905061005926</v>
       </c>
       <c r="E14">
-        <v>0.827134619739774</v>
+        <v>1.003264523918095</v>
       </c>
       <c r="F14">
-        <v>0.850005443643442</v>
+        <v>1.013474341356503</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034988884248348</v>
+        <v>1.028962347620145</v>
       </c>
       <c r="J14">
-        <v>0.8283499434314027</v>
+        <v>1.00727622951968</v>
       </c>
       <c r="K14">
-        <v>1.030755871686404</v>
+        <v>1.029513758997395</v>
       </c>
       <c r="L14">
-        <v>0.8413077142544257</v>
+        <v>1.006961243406443</v>
       </c>
       <c r="M14">
-        <v>0.8636902921468477</v>
+        <v>1.017130826597673</v>
       </c>
       <c r="N14">
-        <v>0.8295262953641418</v>
+        <v>1.008706677301796</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.7987018307498487</v>
+        <v>1.000905774392833</v>
       </c>
       <c r="D15">
-        <v>1.019838078606231</v>
+        <v>1.025960727404263</v>
       </c>
       <c r="E15">
-        <v>0.827134619739774</v>
+        <v>1.003674670420382</v>
       </c>
       <c r="F15">
-        <v>0.850005443643442</v>
+        <v>1.013872139298286</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034988884248348</v>
+        <v>1.028986281394284</v>
       </c>
       <c r="J15">
-        <v>0.8283499434314027</v>
+        <v>1.007697906986828</v>
       </c>
       <c r="K15">
-        <v>1.030755871686404</v>
+        <v>1.02954949594415</v>
       </c>
       <c r="L15">
-        <v>0.8413077142544257</v>
+        <v>1.007349532216102</v>
       </c>
       <c r="M15">
-        <v>0.8636902921468477</v>
+        <v>1.017507085893554</v>
       </c>
       <c r="N15">
-        <v>0.8295262953641418</v>
+        <v>1.009128953599315</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.7987018307498487</v>
+        <v>1.003590263504915</v>
       </c>
       <c r="D16">
-        <v>1.019838078606231</v>
+        <v>1.026283807890807</v>
       </c>
       <c r="E16">
-        <v>0.827134619739774</v>
+        <v>1.00604846876641</v>
       </c>
       <c r="F16">
-        <v>0.850005443643442</v>
+        <v>1.016174328820483</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034988884248348</v>
+        <v>1.029124043347452</v>
       </c>
       <c r="J16">
-        <v>0.8283499434314027</v>
+        <v>1.010138266145564</v>
       </c>
       <c r="K16">
-        <v>1.030755871686404</v>
+        <v>1.029756310667316</v>
       </c>
       <c r="L16">
-        <v>0.8413077142544257</v>
+        <v>1.009596245961826</v>
       </c>
       <c r="M16">
-        <v>0.8636902921468477</v>
+        <v>1.019684023646646</v>
       </c>
       <c r="N16">
-        <v>0.8295262953641418</v>
+        <v>1.011572778347969</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.7987018307498487</v>
+        <v>1.00526155166576</v>
       </c>
       <c r="D17">
-        <v>1.019838078606231</v>
+        <v>1.026485668210176</v>
       </c>
       <c r="E17">
-        <v>0.827134619739774</v>
+        <v>1.007525918485579</v>
       </c>
       <c r="F17">
-        <v>0.850005443643442</v>
+        <v>1.017607076223123</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034988884248348</v>
+        <v>1.029209113692686</v>
       </c>
       <c r="J17">
-        <v>0.8283499434314027</v>
+        <v>1.011656989460346</v>
       </c>
       <c r="K17">
-        <v>1.030755871686404</v>
+        <v>1.029885004971285</v>
       </c>
       <c r="L17">
-        <v>0.8413077142544257</v>
+        <v>1.010994090467136</v>
       </c>
       <c r="M17">
-        <v>0.8636902921468477</v>
+        <v>1.021038294873102</v>
       </c>
       <c r="N17">
-        <v>0.8295262953641418</v>
+        <v>1.013093658424058</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.7987018307498487</v>
+        <v>1.006231950592588</v>
       </c>
       <c r="D18">
-        <v>1.019838078606231</v>
+        <v>1.026603126623141</v>
       </c>
       <c r="E18">
-        <v>0.827134619739774</v>
+        <v>1.008383620007429</v>
       </c>
       <c r="F18">
-        <v>0.850005443643442</v>
+        <v>1.018438774710509</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034988884248348</v>
+        <v>1.02925825515632</v>
       </c>
       <c r="J18">
-        <v>0.8283499434314027</v>
+        <v>1.012538596704218</v>
       </c>
       <c r="K18">
-        <v>1.030755871686404</v>
+        <v>1.029959702085257</v>
       </c>
       <c r="L18">
-        <v>0.8413077142544257</v>
+        <v>1.01180539644898</v>
       </c>
       <c r="M18">
-        <v>0.8636902921468477</v>
+        <v>1.0218242491694</v>
       </c>
       <c r="N18">
-        <v>0.8295262953641418</v>
+        <v>1.013976517651338</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.7987018307498487</v>
+        <v>1.006562089759534</v>
       </c>
       <c r="D19">
-        <v>1.019838078606231</v>
+        <v>1.026643129302407</v>
       </c>
       <c r="E19">
-        <v>0.827134619739774</v>
+        <v>1.008675393024243</v>
       </c>
       <c r="F19">
-        <v>0.850005443643442</v>
+        <v>1.01872169279206</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034988884248348</v>
+        <v>1.029274930475086</v>
       </c>
       <c r="J19">
-        <v>0.8283499434314027</v>
+        <v>1.012838492739044</v>
       </c>
       <c r="K19">
-        <v>1.030755871686404</v>
+        <v>1.029985109892511</v>
       </c>
       <c r="L19">
-        <v>0.8413077142544257</v>
+        <v>1.012081355719511</v>
       </c>
       <c r="M19">
-        <v>0.8636902921468477</v>
+        <v>1.022091574398898</v>
       </c>
       <c r="N19">
-        <v>0.8295262953641418</v>
+        <v>1.014276839572933</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.7987018307498487</v>
+        <v>1.005082699525005</v>
       </c>
       <c r="D20">
-        <v>1.019838078606231</v>
+        <v>1.026464039918263</v>
       </c>
       <c r="E20">
-        <v>0.827134619739774</v>
+        <v>1.007367825304419</v>
       </c>
       <c r="F20">
-        <v>0.850005443643442</v>
+        <v>1.017453771676311</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034988884248348</v>
+        <v>1.029200036084337</v>
       </c>
       <c r="J20">
-        <v>0.8283499434314027</v>
+        <v>1.011494485524475</v>
       </c>
       <c r="K20">
-        <v>1.030755871686404</v>
+        <v>1.029871235473854</v>
       </c>
       <c r="L20">
-        <v>0.8413077142544257</v>
+        <v>1.01084453428702</v>
       </c>
       <c r="M20">
-        <v>0.8636902921468477</v>
+        <v>1.020893406942305</v>
       </c>
       <c r="N20">
-        <v>0.8295262953641418</v>
+        <v>1.012930923713959</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.7987018307498487</v>
+        <v>1.000220135295668</v>
       </c>
       <c r="D21">
-        <v>1.019838078606231</v>
+        <v>1.025878439304846</v>
       </c>
       <c r="E21">
-        <v>0.827134619739774</v>
+        <v>1.003068257312265</v>
       </c>
       <c r="F21">
-        <v>0.850005443643442</v>
+        <v>1.013283981563855</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034988884248348</v>
+        <v>1.02895088123559</v>
       </c>
       <c r="J21">
-        <v>0.8283499434314027</v>
+        <v>1.00707444186269</v>
       </c>
       <c r="K21">
-        <v>1.030755871686404</v>
+        <v>1.029496657662444</v>
       </c>
       <c r="L21">
-        <v>0.8413077142544257</v>
+        <v>1.006775426020084</v>
       </c>
       <c r="M21">
-        <v>0.8636902921468477</v>
+        <v>1.01695076310341</v>
       </c>
       <c r="N21">
-        <v>0.8295262953641418</v>
+        <v>1.008504603083189</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.7987018307498487</v>
+        <v>0.9971204252406206</v>
       </c>
       <c r="D22">
-        <v>1.019838078606231</v>
+        <v>1.025507591001268</v>
       </c>
       <c r="E22">
-        <v>0.827134619739774</v>
+        <v>1.000326099606439</v>
       </c>
       <c r="F22">
-        <v>0.850005443643442</v>
+        <v>1.010624208438364</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034988884248348</v>
+        <v>1.028789790168186</v>
       </c>
       <c r="J22">
-        <v>0.8283499434314027</v>
+        <v>1.004254933905137</v>
       </c>
       <c r="K22">
-        <v>1.030755871686404</v>
+        <v>1.029257721768175</v>
       </c>
       <c r="L22">
-        <v>0.8413077142544257</v>
+        <v>1.004178573002791</v>
       </c>
       <c r="M22">
-        <v>0.8636902921468477</v>
+        <v>1.014434141199648</v>
       </c>
       <c r="N22">
-        <v>0.8295262953641418</v>
+        <v>1.005681091100933</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.7987018307498487</v>
+        <v>0.9987677845559791</v>
       </c>
       <c r="D23">
-        <v>1.019838078606231</v>
+        <v>1.025704441945322</v>
       </c>
       <c r="E23">
-        <v>0.827134619739774</v>
+        <v>1.001783560689006</v>
       </c>
       <c r="F23">
-        <v>0.850005443643442</v>
+        <v>1.012037913797515</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034988884248348</v>
+        <v>1.028875614492979</v>
       </c>
       <c r="J23">
-        <v>0.8283499434314027</v>
+        <v>1.005753555945905</v>
       </c>
       <c r="K23">
-        <v>1.030755871686404</v>
+        <v>1.02938471615154</v>
       </c>
       <c r="L23">
-        <v>0.8413077142544257</v>
+        <v>1.005558963207922</v>
       </c>
       <c r="M23">
-        <v>0.8636902921468477</v>
+        <v>1.015771924194063</v>
       </c>
       <c r="N23">
-        <v>0.8295262953641418</v>
+        <v>1.007181841356894</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.7987018307498487</v>
+        <v>1.005163528789978</v>
       </c>
       <c r="D24">
-        <v>1.019838078606231</v>
+        <v>1.026473813686994</v>
       </c>
       <c r="E24">
-        <v>0.827134619739774</v>
+        <v>1.007439273363141</v>
       </c>
       <c r="F24">
-        <v>0.850005443643442</v>
+        <v>1.017523055739231</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034988884248348</v>
+        <v>1.029204139342646</v>
       </c>
       <c r="J24">
-        <v>0.8283499434314027</v>
+        <v>1.011567927133131</v>
       </c>
       <c r="K24">
-        <v>1.030755871686404</v>
+        <v>1.029877458453562</v>
       </c>
       <c r="L24">
-        <v>0.8413077142544257</v>
+        <v>1.010912124729309</v>
       </c>
       <c r="M24">
-        <v>0.8636902921468477</v>
+        <v>1.020958887807798</v>
       </c>
       <c r="N24">
-        <v>0.8295262953641418</v>
+        <v>1.013004469618123</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.7987018307498487</v>
+        <v>1.012412569937515</v>
       </c>
       <c r="D25">
-        <v>1.019838078606231</v>
+        <v>1.027355560703707</v>
       </c>
       <c r="E25">
-        <v>0.827134619739774</v>
+        <v>1.01384375002125</v>
       </c>
       <c r="F25">
-        <v>0.850005443643442</v>
+        <v>1.023732316058226</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034988884248348</v>
+        <v>1.029566655092902</v>
       </c>
       <c r="J25">
-        <v>0.8283499434314027</v>
+        <v>1.018149947662938</v>
       </c>
       <c r="K25">
-        <v>1.030755871686404</v>
+        <v>1.030434867109709</v>
       </c>
       <c r="L25">
-        <v>0.8413077142544257</v>
+        <v>1.016966918933758</v>
       </c>
       <c r="M25">
-        <v>0.8636902921468477</v>
+        <v>1.02682325994503</v>
       </c>
       <c r="N25">
-        <v>0.8295262953641418</v>
+        <v>1.019595837372051</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_242/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_242/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.018067105082657</v>
+        <v>0.7805171801977662</v>
       </c>
       <c r="D2">
-        <v>1.028050429999862</v>
+        <v>1.01837271056848</v>
       </c>
       <c r="E2">
-        <v>1.018834723825937</v>
+        <v>0.8113362451149002</v>
       </c>
       <c r="F2">
-        <v>1.028569057437104</v>
+        <v>0.8351223329605052</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.029841315527923</v>
+        <v>1.033854387220313</v>
       </c>
       <c r="J2">
-        <v>1.023277645916982</v>
+        <v>0.8120616375965394</v>
       </c>
       <c r="K2">
-        <v>1.030868375034837</v>
+        <v>1.029581883474452</v>
       </c>
       <c r="L2">
-        <v>1.021679761590334</v>
+        <v>0.8262462207392894</v>
       </c>
       <c r="M2">
-        <v>1.031385493480437</v>
+        <v>0.8494828501983108</v>
       </c>
       <c r="N2">
-        <v>1.024730817545772</v>
+        <v>0.813214858266698</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.022104602649436</v>
+        <v>0.8284762916464548</v>
       </c>
       <c r="D3">
-        <v>1.028550325515335</v>
+        <v>1.02241020977947</v>
       </c>
       <c r="E3">
-        <v>1.022395607626298</v>
+        <v>0.853078910443539</v>
       </c>
       <c r="F3">
-        <v>1.032018474363051</v>
+        <v>0.8745876387852746</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.030032628188528</v>
+        <v>1.036883286154663</v>
       </c>
       <c r="J3">
-        <v>1.026935162657732</v>
+        <v>0.8550573102019516</v>
       </c>
       <c r="K3">
-        <v>1.031176956395566</v>
+        <v>1.032764157872957</v>
       </c>
       <c r="L3">
-        <v>1.025038977273434</v>
+        <v>0.8660151763454066</v>
       </c>
       <c r="M3">
-        <v>1.034635768186816</v>
+        <v>0.8871238737472273</v>
       </c>
       <c r="N3">
-        <v>1.028393528379816</v>
+        <v>0.8562715896588828</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.024687327660341</v>
+        <v>0.8527844883046479</v>
       </c>
       <c r="D4">
-        <v>1.028871716451234</v>
+        <v>1.024669782947794</v>
       </c>
       <c r="E4">
-        <v>1.024672132994881</v>
+        <v>0.8743182743394468</v>
       </c>
       <c r="F4">
-        <v>1.034223009948832</v>
+        <v>0.8948280125304082</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.030152752987494</v>
+        <v>1.038456904299893</v>
       </c>
       <c r="J4">
-        <v>1.029273053295223</v>
+        <v>0.8768853822809374</v>
       </c>
       <c r="K4">
-        <v>1.031373842521862</v>
+        <v>1.034479310756457</v>
       </c>
       <c r="L4">
-        <v>1.027185086339882</v>
+        <v>0.8862144889717689</v>
       </c>
       <c r="M4">
-        <v>1.036711476794205</v>
+        <v>0.9063866728114963</v>
       </c>
       <c r="N4">
-        <v>1.030734739090171</v>
+        <v>0.8781306601039354</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.02576621780334</v>
+        <v>0.8620065076070282</v>
       </c>
       <c r="D5">
-        <v>1.029006342577223</v>
+        <v>1.025564593372436</v>
       </c>
       <c r="E5">
-        <v>1.02562279538125</v>
+        <v>0.882387219477747</v>
       </c>
       <c r="F5">
-        <v>1.035143425828342</v>
+        <v>0.902541971818387</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.030202387868978</v>
+        <v>1.039058584930868</v>
       </c>
       <c r="J5">
-        <v>1.030249243701315</v>
+        <v>0.8851698477769249</v>
       </c>
       <c r="K5">
-        <v>1.031455956792303</v>
+        <v>1.035146846263681</v>
       </c>
       <c r="L5">
-        <v>1.028080932488834</v>
+        <v>0.8938811143580726</v>
       </c>
       <c r="M5">
-        <v>1.037577734274358</v>
+        <v>0.913720049727501</v>
       </c>
       <c r="N5">
-        <v>1.031712315798611</v>
+        <v>0.8864268904911689</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.025946971380876</v>
+        <v>0.8635065467543098</v>
       </c>
       <c r="D6">
-        <v>1.029028918646499</v>
+        <v>1.025712094683613</v>
       </c>
       <c r="E6">
-        <v>1.025782047382171</v>
+        <v>0.8837002123832189</v>
       </c>
       <c r="F6">
-        <v>1.035297599944332</v>
+        <v>0.9037983976296212</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.030210671376977</v>
+        <v>1.03915664218185</v>
       </c>
       <c r="J6">
-        <v>1.030412766378771</v>
+        <v>0.8865174941045034</v>
       </c>
       <c r="K6">
-        <v>1.031469705929866</v>
+        <v>1.035256271075157</v>
       </c>
       <c r="L6">
-        <v>1.028230981019669</v>
+        <v>0.8951282424436833</v>
       </c>
       <c r="M6">
-        <v>1.037722814782982</v>
+        <v>0.9149140516434666</v>
       </c>
       <c r="N6">
-        <v>1.031876070697025</v>
+        <v>0.8877764506311097</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.024701770582887</v>
+        <v>0.8529111431297335</v>
       </c>
       <c r="D7">
-        <v>1.028873517230918</v>
+        <v>1.024681932309662</v>
       </c>
       <c r="E7">
-        <v>1.024684860609804</v>
+        <v>0.8744290547780419</v>
       </c>
       <c r="F7">
-        <v>1.034235333356784</v>
+        <v>0.8949338318746147</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.030153419596169</v>
+        <v>1.03846515298412</v>
       </c>
       <c r="J7">
-        <v>1.029286123066528</v>
+        <v>0.8769991515825759</v>
       </c>
       <c r="K7">
-        <v>1.031374942303238</v>
+        <v>1.034488417446207</v>
       </c>
       <c r="L7">
-        <v>1.027197081465032</v>
+        <v>0.8863197738559722</v>
       </c>
       <c r="M7">
-        <v>1.036723076542353</v>
+        <v>0.9064873020887306</v>
       </c>
       <c r="N7">
-        <v>1.030747827422051</v>
+        <v>0.8782445909710319</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.01943791994067</v>
+        <v>0.7987018307498502</v>
       </c>
       <c r="D8">
-        <v>1.028219807873862</v>
+        <v>1.019838078606231</v>
       </c>
       <c r="E8">
-        <v>1.020043991594583</v>
+        <v>0.8271346197397753</v>
       </c>
       <c r="F8">
-        <v>1.029740617097775</v>
+        <v>0.8500054436434431</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.029906737470805</v>
+        <v>1.034988884248348</v>
       </c>
       <c r="J8">
-        <v>1.024519817150466</v>
+        <v>0.8283499434314043</v>
       </c>
       <c r="K8">
-        <v>1.030973244983417</v>
+        <v>1.030755871686403</v>
       </c>
       <c r="L8">
-        <v>1.022820854235401</v>
+        <v>0.8413077142544272</v>
       </c>
       <c r="M8">
-        <v>1.032489741293921</v>
+        <v>0.8636902921468488</v>
       </c>
       <c r="N8">
-        <v>1.025974752804885</v>
+        <v>0.8295262953641432</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.009922495126758</v>
+        <v>0.7987018307498502</v>
       </c>
       <c r="D9">
-        <v>1.027051520997268</v>
+        <v>1.019838078606231</v>
       </c>
       <c r="E9">
-        <v>1.01164452576869</v>
+        <v>0.8271346197397753</v>
       </c>
       <c r="F9">
-        <v>1.021600426788542</v>
+        <v>0.8500054436434431</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.029443385824711</v>
+        <v>1.034988884248348</v>
       </c>
       <c r="J9">
-        <v>1.015890017250645</v>
+        <v>0.8283499434314043</v>
       </c>
       <c r="K9">
-        <v>1.030243568875564</v>
+        <v>1.030755871686403</v>
       </c>
       <c r="L9">
-        <v>1.014888656369322</v>
+        <v>0.8413077142544272</v>
       </c>
       <c r="M9">
-        <v>1.024810704611762</v>
+        <v>0.8636902921468488</v>
       </c>
       <c r="N9">
-        <v>1.017332697599354</v>
+        <v>0.8295262953641432</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.003400783643963</v>
+        <v>0.7987018307498502</v>
       </c>
       <c r="D10">
-        <v>1.02626095705391</v>
+        <v>1.019838078606231</v>
       </c>
       <c r="E10">
-        <v>1.005880944870363</v>
+        <v>0.8271346197397753</v>
       </c>
       <c r="F10">
-        <v>1.016011866817545</v>
+        <v>0.8500054436434431</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.029114364405802</v>
+        <v>1.034988884248348</v>
       </c>
       <c r="J10">
-        <v>1.009966054863218</v>
+        <v>0.8283499434314043</v>
       </c>
       <c r="K10">
-        <v>1.029741716813135</v>
+        <v>1.030755871686403</v>
       </c>
       <c r="L10">
-        <v>1.009437723447311</v>
+        <v>0.8413077142544272</v>
       </c>
       <c r="M10">
-        <v>1.019530434441688</v>
+        <v>0.8636902921468488</v>
       </c>
       <c r="N10">
-        <v>1.011400322505849</v>
+        <v>0.8295262953641432</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.000530614495827</v>
+        <v>0.7987018307498502</v>
       </c>
       <c r="D11">
-        <v>1.025915690400758</v>
+        <v>1.019838078606231</v>
       </c>
       <c r="E11">
-        <v>1.003342866746604</v>
+        <v>0.8271346197397753</v>
       </c>
       <c r="F11">
-        <v>1.01355032597436</v>
+        <v>0.8500054436434431</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.028966922186335</v>
+        <v>1.034988884248348</v>
       </c>
       <c r="J11">
-        <v>1.007356775589569</v>
+        <v>0.8283499434314043</v>
       </c>
       <c r="K11">
-        <v>1.029520585223876</v>
+        <v>1.030755871686403</v>
       </c>
       <c r="L11">
-        <v>1.00703541340947</v>
+        <v>0.8413077142544272</v>
       </c>
       <c r="M11">
-        <v>1.01720269938594</v>
+        <v>0.8636902921468488</v>
       </c>
       <c r="N11">
-        <v>1.008787337756343</v>
+        <v>0.8295262953641432</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9994572061126786</v>
+        <v>0.7987018307498502</v>
       </c>
       <c r="D12">
-        <v>1.025786984999676</v>
+        <v>1.019838078606231</v>
       </c>
       <c r="E12">
-        <v>1.002393425777833</v>
+        <v>0.8271346197397753</v>
       </c>
       <c r="F12">
-        <v>1.012629448606412</v>
+        <v>0.8500054436434431</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.028911390262416</v>
+        <v>1.034988884248348</v>
       </c>
       <c r="J12">
-        <v>1.006380611505209</v>
+        <v>0.8283499434314043</v>
       </c>
       <c r="K12">
-        <v>1.029437856740018</v>
+        <v>1.030755871686403</v>
       </c>
       <c r="L12">
-        <v>1.006136471869503</v>
+        <v>0.8413077142544272</v>
       </c>
       <c r="M12">
-        <v>1.016331580505752</v>
+        <v>0.8636902921468488</v>
       </c>
       <c r="N12">
-        <v>1.007809787407016</v>
+        <v>0.8295262953641432</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9996877920790229</v>
+        <v>0.7987018307498502</v>
       </c>
       <c r="D13">
-        <v>1.025814613723718</v>
+        <v>1.019838078606231</v>
       </c>
       <c r="E13">
-        <v>1.002597391849281</v>
+        <v>0.8271346197397753</v>
       </c>
       <c r="F13">
-        <v>1.012827281259715</v>
+        <v>0.8500054436434431</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.02892333698123</v>
+        <v>1.034988884248348</v>
       </c>
       <c r="J13">
-        <v>1.006590322460577</v>
+        <v>0.8283499434314043</v>
       </c>
       <c r="K13">
-        <v>1.029455629253989</v>
+        <v>1.030755871686403</v>
       </c>
       <c r="L13">
-        <v>1.006329602338462</v>
+        <v>0.8413077142544272</v>
       </c>
       <c r="M13">
-        <v>1.016518737049293</v>
+        <v>0.8636902921468488</v>
       </c>
       <c r="N13">
-        <v>1.008019796175995</v>
+        <v>0.8295262953641432</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.000442037251159</v>
+        <v>0.7987018307498502</v>
       </c>
       <c r="D14">
-        <v>1.025905061005926</v>
+        <v>1.019838078606231</v>
       </c>
       <c r="E14">
-        <v>1.003264523918095</v>
+        <v>0.8271346197397753</v>
       </c>
       <c r="F14">
-        <v>1.013474341356503</v>
+        <v>0.8500054436434431</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.028962347620145</v>
+        <v>1.034988884248348</v>
       </c>
       <c r="J14">
-        <v>1.00727622951968</v>
+        <v>0.8283499434314043</v>
       </c>
       <c r="K14">
-        <v>1.029513758997395</v>
+        <v>1.030755871686403</v>
       </c>
       <c r="L14">
-        <v>1.006961243406443</v>
+        <v>0.8413077142544272</v>
       </c>
       <c r="M14">
-        <v>1.017130826597673</v>
+        <v>0.8636902921468488</v>
       </c>
       <c r="N14">
-        <v>1.008706677301796</v>
+        <v>0.8295262953641432</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.000905774392833</v>
+        <v>0.7987018307498502</v>
       </c>
       <c r="D15">
-        <v>1.025960727404263</v>
+        <v>1.019838078606231</v>
       </c>
       <c r="E15">
-        <v>1.003674670420382</v>
+        <v>0.8271346197397753</v>
       </c>
       <c r="F15">
-        <v>1.013872139298286</v>
+        <v>0.8500054436434431</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.028986281394284</v>
+        <v>1.034988884248348</v>
       </c>
       <c r="J15">
-        <v>1.007697906986828</v>
+        <v>0.8283499434314043</v>
       </c>
       <c r="K15">
-        <v>1.02954949594415</v>
+        <v>1.030755871686403</v>
       </c>
       <c r="L15">
-        <v>1.007349532216102</v>
+        <v>0.8413077142544272</v>
       </c>
       <c r="M15">
-        <v>1.017507085893554</v>
+        <v>0.8636902921468488</v>
       </c>
       <c r="N15">
-        <v>1.009128953599315</v>
+        <v>0.8295262953641432</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.003590263504915</v>
+        <v>0.7987018307498502</v>
       </c>
       <c r="D16">
-        <v>1.026283807890807</v>
+        <v>1.019838078606231</v>
       </c>
       <c r="E16">
-        <v>1.00604846876641</v>
+        <v>0.8271346197397753</v>
       </c>
       <c r="F16">
-        <v>1.016174328820483</v>
+        <v>0.8500054436434431</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.029124043347452</v>
+        <v>1.034988884248348</v>
       </c>
       <c r="J16">
-        <v>1.010138266145564</v>
+        <v>0.8283499434314043</v>
       </c>
       <c r="K16">
-        <v>1.029756310667316</v>
+        <v>1.030755871686403</v>
       </c>
       <c r="L16">
-        <v>1.009596245961826</v>
+        <v>0.8413077142544272</v>
       </c>
       <c r="M16">
-        <v>1.019684023646646</v>
+        <v>0.8636902921468488</v>
       </c>
       <c r="N16">
-        <v>1.011572778347969</v>
+        <v>0.8295262953641432</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.00526155166576</v>
+        <v>0.7987018307498502</v>
       </c>
       <c r="D17">
-        <v>1.026485668210176</v>
+        <v>1.019838078606231</v>
       </c>
       <c r="E17">
-        <v>1.007525918485579</v>
+        <v>0.8271346197397753</v>
       </c>
       <c r="F17">
-        <v>1.017607076223123</v>
+        <v>0.8500054436434431</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.029209113692686</v>
+        <v>1.034988884248348</v>
       </c>
       <c r="J17">
-        <v>1.011656989460346</v>
+        <v>0.8283499434314043</v>
       </c>
       <c r="K17">
-        <v>1.029885004971285</v>
+        <v>1.030755871686403</v>
       </c>
       <c r="L17">
-        <v>1.010994090467136</v>
+        <v>0.8413077142544272</v>
       </c>
       <c r="M17">
-        <v>1.021038294873102</v>
+        <v>0.8636902921468488</v>
       </c>
       <c r="N17">
-        <v>1.013093658424058</v>
+        <v>0.8295262953641432</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.006231950592588</v>
+        <v>0.7987018307498502</v>
       </c>
       <c r="D18">
-        <v>1.026603126623141</v>
+        <v>1.019838078606231</v>
       </c>
       <c r="E18">
-        <v>1.008383620007429</v>
+        <v>0.8271346197397753</v>
       </c>
       <c r="F18">
-        <v>1.018438774710509</v>
+        <v>0.8500054436434431</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.02925825515632</v>
+        <v>1.034988884248348</v>
       </c>
       <c r="J18">
-        <v>1.012538596704218</v>
+        <v>0.8283499434314043</v>
       </c>
       <c r="K18">
-        <v>1.029959702085257</v>
+        <v>1.030755871686403</v>
       </c>
       <c r="L18">
-        <v>1.01180539644898</v>
+        <v>0.8413077142544272</v>
       </c>
       <c r="M18">
-        <v>1.0218242491694</v>
+        <v>0.8636902921468488</v>
       </c>
       <c r="N18">
-        <v>1.013976517651338</v>
+        <v>0.8295262953641432</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.006562089759534</v>
+        <v>0.7987018307498502</v>
       </c>
       <c r="D19">
-        <v>1.026643129302407</v>
+        <v>1.019838078606231</v>
       </c>
       <c r="E19">
-        <v>1.008675393024243</v>
+        <v>0.8271346197397753</v>
       </c>
       <c r="F19">
-        <v>1.01872169279206</v>
+        <v>0.8500054436434431</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.029274930475086</v>
+        <v>1.034988884248348</v>
       </c>
       <c r="J19">
-        <v>1.012838492739044</v>
+        <v>0.8283499434314043</v>
       </c>
       <c r="K19">
-        <v>1.029985109892511</v>
+        <v>1.030755871686403</v>
       </c>
       <c r="L19">
-        <v>1.012081355719511</v>
+        <v>0.8413077142544272</v>
       </c>
       <c r="M19">
-        <v>1.022091574398898</v>
+        <v>0.8636902921468488</v>
       </c>
       <c r="N19">
-        <v>1.014276839572933</v>
+        <v>0.8295262953641432</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.005082699525005</v>
+        <v>0.7987018307498502</v>
       </c>
       <c r="D20">
-        <v>1.026464039918263</v>
+        <v>1.019838078606231</v>
       </c>
       <c r="E20">
-        <v>1.007367825304419</v>
+        <v>0.8271346197397753</v>
       </c>
       <c r="F20">
-        <v>1.017453771676311</v>
+        <v>0.8500054436434431</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.029200036084337</v>
+        <v>1.034988884248348</v>
       </c>
       <c r="J20">
-        <v>1.011494485524475</v>
+        <v>0.8283499434314043</v>
       </c>
       <c r="K20">
-        <v>1.029871235473854</v>
+        <v>1.030755871686403</v>
       </c>
       <c r="L20">
-        <v>1.01084453428702</v>
+        <v>0.8413077142544272</v>
       </c>
       <c r="M20">
-        <v>1.020893406942305</v>
+        <v>0.8636902921468488</v>
       </c>
       <c r="N20">
-        <v>1.012930923713959</v>
+        <v>0.8295262953641432</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.000220135295668</v>
+        <v>0.7987018307498502</v>
       </c>
       <c r="D21">
-        <v>1.025878439304846</v>
+        <v>1.019838078606231</v>
       </c>
       <c r="E21">
-        <v>1.003068257312265</v>
+        <v>0.8271346197397753</v>
       </c>
       <c r="F21">
-        <v>1.013283981563855</v>
+        <v>0.8500054436434431</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.02895088123559</v>
+        <v>1.034988884248348</v>
       </c>
       <c r="J21">
-        <v>1.00707444186269</v>
+        <v>0.8283499434314043</v>
       </c>
       <c r="K21">
-        <v>1.029496657662444</v>
+        <v>1.030755871686403</v>
       </c>
       <c r="L21">
-        <v>1.006775426020084</v>
+        <v>0.8413077142544272</v>
       </c>
       <c r="M21">
-        <v>1.01695076310341</v>
+        <v>0.8636902921468488</v>
       </c>
       <c r="N21">
-        <v>1.008504603083189</v>
+        <v>0.8295262953641432</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9971204252406206</v>
+        <v>0.7987018307498502</v>
       </c>
       <c r="D22">
-        <v>1.025507591001268</v>
+        <v>1.019838078606231</v>
       </c>
       <c r="E22">
-        <v>1.000326099606439</v>
+        <v>0.8271346197397753</v>
       </c>
       <c r="F22">
-        <v>1.010624208438364</v>
+        <v>0.8500054436434431</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.028789790168186</v>
+        <v>1.034988884248348</v>
       </c>
       <c r="J22">
-        <v>1.004254933905137</v>
+        <v>0.8283499434314043</v>
       </c>
       <c r="K22">
-        <v>1.029257721768175</v>
+        <v>1.030755871686403</v>
       </c>
       <c r="L22">
-        <v>1.004178573002791</v>
+        <v>0.8413077142544272</v>
       </c>
       <c r="M22">
-        <v>1.014434141199648</v>
+        <v>0.8636902921468488</v>
       </c>
       <c r="N22">
-        <v>1.005681091100933</v>
+        <v>0.8295262953641432</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9987677845559791</v>
+        <v>0.7987018307498502</v>
       </c>
       <c r="D23">
-        <v>1.025704441945322</v>
+        <v>1.019838078606231</v>
       </c>
       <c r="E23">
-        <v>1.001783560689006</v>
+        <v>0.8271346197397753</v>
       </c>
       <c r="F23">
-        <v>1.012037913797515</v>
+        <v>0.8500054436434431</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.028875614492979</v>
+        <v>1.034988884248348</v>
       </c>
       <c r="J23">
-        <v>1.005753555945905</v>
+        <v>0.8283499434314043</v>
       </c>
       <c r="K23">
-        <v>1.02938471615154</v>
+        <v>1.030755871686403</v>
       </c>
       <c r="L23">
-        <v>1.005558963207922</v>
+        <v>0.8413077142544272</v>
       </c>
       <c r="M23">
-        <v>1.015771924194063</v>
+        <v>0.8636902921468488</v>
       </c>
       <c r="N23">
-        <v>1.007181841356894</v>
+        <v>0.8295262953641432</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.005163528789978</v>
+        <v>0.7987018307498502</v>
       </c>
       <c r="D24">
-        <v>1.026473813686994</v>
+        <v>1.019838078606231</v>
       </c>
       <c r="E24">
-        <v>1.007439273363141</v>
+        <v>0.8271346197397753</v>
       </c>
       <c r="F24">
-        <v>1.017523055739231</v>
+        <v>0.8500054436434431</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.029204139342646</v>
+        <v>1.034988884248348</v>
       </c>
       <c r="J24">
-        <v>1.011567927133131</v>
+        <v>0.8283499434314043</v>
       </c>
       <c r="K24">
-        <v>1.029877458453562</v>
+        <v>1.030755871686403</v>
       </c>
       <c r="L24">
-        <v>1.010912124729309</v>
+        <v>0.8413077142544272</v>
       </c>
       <c r="M24">
-        <v>1.020958887807798</v>
+        <v>0.8636902921468488</v>
       </c>
       <c r="N24">
-        <v>1.013004469618123</v>
+        <v>0.8295262953641432</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.012412569937515</v>
+        <v>0.7987018307498502</v>
       </c>
       <c r="D25">
-        <v>1.027355560703707</v>
+        <v>1.019838078606231</v>
       </c>
       <c r="E25">
-        <v>1.01384375002125</v>
+        <v>0.8271346197397753</v>
       </c>
       <c r="F25">
-        <v>1.023732316058226</v>
+        <v>0.8500054436434431</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.029566655092902</v>
+        <v>1.034988884248348</v>
       </c>
       <c r="J25">
-        <v>1.018149947662938</v>
+        <v>0.8283499434314043</v>
       </c>
       <c r="K25">
-        <v>1.030434867109709</v>
+        <v>1.030755871686403</v>
       </c>
       <c r="L25">
-        <v>1.016966918933758</v>
+        <v>0.8413077142544272</v>
       </c>
       <c r="M25">
-        <v>1.02682325994503</v>
+        <v>0.8636902921468488</v>
       </c>
       <c r="N25">
-        <v>1.019595837372051</v>
+        <v>0.8295262953641432</v>
       </c>
     </row>
   </sheetData>
